--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H2">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N2">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O2">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P2">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q2">
-        <v>231.7334705037517</v>
+        <v>353.837365107135</v>
       </c>
       <c r="R2">
-        <v>2085.601234533765</v>
+        <v>3184.536285964215</v>
       </c>
       <c r="S2">
-        <v>0.09255413895666585</v>
+        <v>0.1298815872854409</v>
       </c>
       <c r="T2">
-        <v>0.09255413895666585</v>
+        <v>0.1298815872854409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H3">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P3">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q3">
-        <v>24.62063274496877</v>
+        <v>36.080560091347</v>
       </c>
       <c r="R3">
-        <v>221.585694704719</v>
+        <v>324.7250408221229</v>
       </c>
       <c r="S3">
-        <v>0.009833458495767814</v>
+        <v>0.01324393881746489</v>
       </c>
       <c r="T3">
-        <v>0.009833458495767814</v>
+        <v>0.01324393881746489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H4">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N4">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q4">
-        <v>15.38532231103589</v>
+        <v>22.546579201199</v>
       </c>
       <c r="R4">
-        <v>138.467900799323</v>
+        <v>202.919212810791</v>
       </c>
       <c r="S4">
-        <v>0.006144883844242315</v>
+        <v>0.008276077608768024</v>
       </c>
       <c r="T4">
-        <v>0.006144883844242316</v>
+        <v>0.008276077608768024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N5">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O5">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P5">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q5">
-        <v>458.324829151475</v>
+        <v>477.5449438009249</v>
       </c>
       <c r="R5">
-        <v>4124.923462363275</v>
+        <v>4297.904494208325</v>
       </c>
       <c r="S5">
-        <v>0.183054523079302</v>
+        <v>0.1752904057552574</v>
       </c>
       <c r="T5">
-        <v>0.183054523079302</v>
+        <v>0.1752904057552573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P6">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q6">
         <v>48.69493937111832</v>
@@ -818,10 +818,10 @@
         <v>438.2544543400649</v>
       </c>
       <c r="S6">
-        <v>0.01944871483279295</v>
+        <v>0.01787424574669836</v>
       </c>
       <c r="T6">
-        <v>0.01944871483279295</v>
+        <v>0.01787424574669835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N7">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q7">
         <v>30.42924789551166</v>
@@ -880,10 +880,10 @@
         <v>273.863231059605</v>
       </c>
       <c r="S7">
-        <v>0.01215341414404106</v>
+        <v>0.01116953551633692</v>
       </c>
       <c r="T7">
-        <v>0.01215341414404106</v>
+        <v>0.01116953551633692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H8">
         <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N8">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O8">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P8">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q8">
-        <v>1445.094861270884</v>
+        <v>1505.695743322983</v>
       </c>
       <c r="R8">
-        <v>13005.85375143795</v>
+        <v>13551.26168990685</v>
       </c>
       <c r="S8">
-        <v>0.5771695832495798</v>
+        <v>0.5526893776537946</v>
       </c>
       <c r="T8">
-        <v>0.5771695832495797</v>
+        <v>0.5526893776537946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H9">
         <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P9">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q9">
-        <v>153.5347905662856</v>
+        <v>153.5347905662855</v>
       </c>
       <c r="R9">
         <v>1381.81311509657</v>
       </c>
       <c r="S9">
-        <v>0.06132165677173736</v>
+        <v>0.05635736716570073</v>
       </c>
       <c r="T9">
-        <v>0.06132165677173735</v>
+        <v>0.05635736716570072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H10">
         <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N10">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q10">
-        <v>95.94319785718778</v>
+        <v>95.94319785718777</v>
       </c>
       <c r="R10">
-        <v>863.4887807146901</v>
+        <v>863.4887807146899</v>
       </c>
       <c r="S10">
-        <v>0.03831962662587095</v>
+        <v>0.0352174644505383</v>
       </c>
       <c r="T10">
-        <v>0.03831962662587095</v>
+        <v>0.0352174644505383</v>
       </c>
     </row>
   </sheetData>
